--- a/keyb2.xlsx
+++ b/keyb2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\PycharmProjects\keyb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D420DF7-7ED9-41C3-8FDB-32E3A3FDAAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EED863-79C2-41E0-B2D3-012CFC064345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21570" windowHeight="18870" xr2:uid="{4501C144-AF4D-4DC3-9459-0885502EA0B5}"/>
+    <workbookView xWindow="6370" yWindow="3540" windowWidth="19200" windowHeight="10060" xr2:uid="{4501C144-AF4D-4DC3-9459-0885502EA0B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>Mechanical keyboard</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>MOBA, Strategy</t>
+  </si>
+  <si>
+    <t>MMO's</t>
+  </si>
+  <si>
+    <t>Membrane keyboard</t>
+  </si>
+  <si>
+    <t>FPS, Survival, Strategy</t>
   </si>
 </sst>
 </file>
@@ -249,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -265,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,15 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA809AC-C903-405D-981F-9BB1DC792B0B}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -626,7 +638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>18</v>
       </c>
@@ -662,7 +674,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -696,7 +708,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -732,7 +744,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>21</v>
       </c>
@@ -768,7 +780,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>22</v>
       </c>
@@ -806,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>23</v>
       </c>
@@ -844,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="114" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>24</v>
       </c>
@@ -882,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>25</v>
       </c>
@@ -920,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>26</v>
       </c>
@@ -958,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="64" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>27</v>
       </c>
@@ -996,7 +1008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>28</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>29</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1142,13 +1154,13 @@
         <v>5</v>
       </c>
       <c r="K15" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1186,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1222,7 +1234,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -1257,6 +1269,80 @@
         <v>2</v>
       </c>
       <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
